--- a/Nutrients/Activity_data/Raw_data_Municipality/Crop_Scale_Conversion.xlsx
+++ b/Nutrients/Activity_data/Raw_data_Municipality/Crop_Scale_Conversion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\O meu disco\LULCC_PhD\Nutrients\Activity_data\Raw_data_Municipality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260B041D-06C7-4E39-8904-653A6C3B4A33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A0CDBE-E788-4EA1-AF3D-04FA72AECE5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Crops" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="103">
   <si>
     <t>Main_crop</t>
   </si>
@@ -235,15 +235,130 @@
   </si>
   <si>
     <t>Because the acreage of Other_pulses is quite significant, these will also be estimated; other_pulses will follow the trend of Beans</t>
+  </si>
+  <si>
+    <t>Male_calf_+2</t>
+  </si>
+  <si>
+    <t>Male_calf_1-2</t>
+  </si>
+  <si>
+    <t>Non_dairy</t>
+  </si>
+  <si>
+    <t>Other_calf</t>
+  </si>
+  <si>
+    <t>Beef_calf</t>
+  </si>
+  <si>
+    <t>Dairy_cows</t>
+  </si>
+  <si>
+    <t>Female_calf_+2</t>
+  </si>
+  <si>
+    <t>Female_calf_1-2</t>
+  </si>
+  <si>
+    <t>Female_calf-1</t>
+  </si>
+  <si>
+    <t>Bovine</t>
+  </si>
+  <si>
+    <t>Horses</t>
+  </si>
+  <si>
+    <t>Other_equidae</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Ewes</t>
+  </si>
+  <si>
+    <t>Rabbits</t>
+  </si>
+  <si>
+    <t>Non_pregnant_sows</t>
+  </si>
+  <si>
+    <t>Other_swine</t>
+  </si>
+  <si>
+    <t>Pigs_+50</t>
+  </si>
+  <si>
+    <t>Pigs_20</t>
+  </si>
+  <si>
+    <t>Pregnant_sows</t>
+  </si>
+  <si>
+    <t>Broilers</t>
+  </si>
+  <si>
+    <t>Ducks</t>
+  </si>
+  <si>
+    <t>Geese</t>
+  </si>
+  <si>
+    <t>Laying_hens</t>
+  </si>
+  <si>
+    <t>Rep_hens</t>
+  </si>
+  <si>
+    <t>Turkeys</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Pigs</t>
+  </si>
+  <si>
+    <t>Poultry</t>
+  </si>
+  <si>
+    <t>Sows_50+</t>
+  </si>
+  <si>
+    <t>Rep_laying_hens</t>
+  </si>
+  <si>
+    <t>1 -  AG_muni sows corrected based on Pregnant + Non_pregnant sows;; 2 - AG_muni sows will be divided based on AR fractions for AG_census yrs;; 3 - Linear interpolation</t>
+  </si>
+  <si>
+    <t>1 - AG_muni Rep_laying_hens corrected based on Laying + Rep hens;; 2 - AG_muni rep_laying_hens will be divided based on AR fractions for AG_census yrs;; 3 - Linear interpolation</t>
+  </si>
+  <si>
+    <t>Male_calf_2</t>
+  </si>
+  <si>
+    <t>Female_calf_2</t>
+  </si>
+  <si>
+    <t>Pigs_50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -276,9 +391,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -286,10 +404,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -593,13 +711,13 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -611,13 +729,13 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -629,11 +747,11 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -645,11 +763,11 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -661,11 +779,11 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -677,11 +795,11 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -693,11 +811,11 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -709,11 +827,11 @@
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -725,11 +843,11 @@
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -741,13 +859,13 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -759,11 +877,11 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -775,11 +893,11 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -923,13 +1041,13 @@
       <c r="C25" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -941,11 +1059,11 @@
       <c r="C26" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -957,11 +1075,11 @@
       <c r="C27" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -973,11 +1091,11 @@
       <c r="C28" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -989,11 +1107,11 @@
       <c r="C29" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -1005,11 +1123,11 @@
       <c r="C30" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1065,12 +1183,12 @@
       <c r="C35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -1082,10 +1200,10 @@
       <c r="C36" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -1158,15 +1276,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8763245C-FC89-4063-983D-952E18B75655}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -1177,7 +1300,324 @@
         <v>64</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D16:F20"/>
+    <mergeCell ref="D21:F26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>